--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.17439995018504</v>
+        <v>4.025457</v>
       </c>
       <c r="H2">
-        <v>1.17439995018504</v>
+        <v>12.076371</v>
       </c>
       <c r="I2">
-        <v>0.00282104125513921</v>
+        <v>0.007988230327331255</v>
       </c>
       <c r="J2">
-        <v>0.00282104125513921</v>
+        <v>0.008053698920764607</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.06860853772263389</v>
+        <v>0.06930366666666667</v>
       </c>
       <c r="N2">
-        <v>0.06860853772263389</v>
+        <v>0.207911</v>
       </c>
       <c r="O2">
-        <v>0.0002676987190607325</v>
+        <v>0.0001844138843618826</v>
       </c>
       <c r="P2">
-        <v>0.0002676987190607325</v>
+        <v>0.0001844379559408913</v>
       </c>
       <c r="Q2">
-        <v>0.08057386328372967</v>
+        <v>0.278978930109</v>
       </c>
       <c r="R2">
-        <v>0.08057386328372967</v>
+        <v>2.510810370981</v>
       </c>
       <c r="S2">
-        <v>7.551891304182474E-07</v>
+        <v>1.47314058384055E-06</v>
       </c>
       <c r="T2">
-        <v>7.551891304182474E-07</v>
+        <v>1.485407766709186E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.17439995018504</v>
+        <v>4.025457</v>
       </c>
       <c r="H3">
-        <v>1.17439995018504</v>
+        <v>12.076371</v>
       </c>
       <c r="I3">
-        <v>0.00282104125513921</v>
+        <v>0.007988230327331255</v>
       </c>
       <c r="J3">
-        <v>0.00282104125513921</v>
+        <v>0.008053698920764607</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>94.3348072251292</v>
+        <v>0.311428</v>
       </c>
       <c r="N3">
-        <v>94.3348072251292</v>
+        <v>0.934284</v>
       </c>
       <c r="O3">
-        <v>0.3680781998167726</v>
+        <v>0.000828695651202472</v>
       </c>
       <c r="P3">
-        <v>0.3680781998167726</v>
+        <v>0.000828803821001677</v>
       </c>
       <c r="Q3">
-        <v>110.7867929059071</v>
+        <v>1.253640022596</v>
       </c>
       <c r="R3">
-        <v>110.7867929059071</v>
+        <v>11.282760203364</v>
       </c>
       <c r="S3">
-        <v>0.001038363786800489</v>
+        <v>6.619811733063111E-06</v>
       </c>
       <c r="T3">
-        <v>0.001038363786800489</v>
+        <v>6.674936438726789E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.17439995018504</v>
+        <v>4.025457</v>
       </c>
       <c r="H4">
-        <v>1.17439995018504</v>
+        <v>12.076371</v>
       </c>
       <c r="I4">
-        <v>0.00282104125513921</v>
+        <v>0.007988230327331255</v>
       </c>
       <c r="J4">
-        <v>0.00282104125513921</v>
+        <v>0.008053698920764607</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>161.750825565473</v>
+        <v>168.931335</v>
       </c>
       <c r="N4">
-        <v>161.750825565473</v>
+        <v>506.794005</v>
       </c>
       <c r="O4">
-        <v>0.6311239132649276</v>
+        <v>0.4495185489626108</v>
       </c>
       <c r="P4">
-        <v>0.6311239132649276</v>
+        <v>0.4495772247033483</v>
       </c>
       <c r="Q4">
-        <v>189.9601614864806</v>
+        <v>680.0258249950951</v>
       </c>
       <c r="R4">
-        <v>189.9601614864806</v>
+        <v>6120.232424955855</v>
       </c>
       <c r="S4">
-        <v>0.001780426596425261</v>
+        <v>0.003590857705521068</v>
       </c>
       <c r="T4">
-        <v>0.001780426596425261</v>
+        <v>0.003620759609393703</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.17439995018504</v>
+        <v>4.025457</v>
       </c>
       <c r="H5">
-        <v>1.17439995018504</v>
+        <v>12.076371</v>
       </c>
       <c r="I5">
-        <v>0.00282104125513921</v>
+        <v>0.007988230327331255</v>
       </c>
       <c r="J5">
-        <v>0.00282104125513921</v>
+        <v>0.008053698920764607</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.135881998969694</v>
+        <v>206.345828</v>
       </c>
       <c r="N5">
-        <v>0.135881998969694</v>
+        <v>619.0374839999999</v>
       </c>
       <c r="O5">
-        <v>0.0005301881992392126</v>
+        <v>0.5490768020453307</v>
       </c>
       <c r="P5">
-        <v>0.0005301881992392126</v>
+        <v>0.5491484731435671</v>
       </c>
       <c r="Q5">
-        <v>0.1595798128210523</v>
+        <v>830.636257743396</v>
       </c>
       <c r="R5">
-        <v>0.1595798128210523</v>
+        <v>7475.726319690563</v>
       </c>
       <c r="S5">
-        <v>1.495682783041786E-06</v>
+        <v>0.004386151962132571</v>
       </c>
       <c r="T5">
-        <v>1.495682783041786E-06</v>
+        <v>0.004422676465495877</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>132.092397373363</v>
+        <v>4.025457</v>
       </c>
       <c r="H6">
-        <v>132.092397373363</v>
+        <v>12.076371</v>
       </c>
       <c r="I6">
-        <v>0.3173008500398743</v>
+        <v>0.007988230327331255</v>
       </c>
       <c r="J6">
-        <v>0.3173008500398743</v>
+        <v>0.008053698920764607</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.06860853772263389</v>
+        <v>0.1471425</v>
       </c>
       <c r="N6">
-        <v>0.06860853772263389</v>
+        <v>0.294285</v>
       </c>
       <c r="O6">
-        <v>0.0002676987190607325</v>
+        <v>0.0003915394564941487</v>
       </c>
       <c r="P6">
-        <v>0.0002676987190607325</v>
+        <v>0.000261060376142028</v>
       </c>
       <c r="Q6">
-        <v>9.062666228063522</v>
+        <v>0.5923158066225001</v>
       </c>
       <c r="R6">
-        <v>9.062666228063522</v>
+        <v>3.553894839735</v>
       </c>
       <c r="S6">
-        <v>8.494103111255593E-05</v>
+        <v>3.127707360713355E-06</v>
       </c>
       <c r="T6">
-        <v>8.494103111255593E-05</v>
+        <v>2.102501669589453E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>132.092397373363</v>
+        <v>143.2163033333333</v>
       </c>
       <c r="H7">
-        <v>132.092397373363</v>
+        <v>429.64891</v>
       </c>
       <c r="I7">
-        <v>0.3173008500398743</v>
+        <v>0.2842024688515132</v>
       </c>
       <c r="J7">
-        <v>0.3173008500398743</v>
+        <v>0.2865316876050504</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>94.3348072251292</v>
+        <v>0.06930366666666667</v>
       </c>
       <c r="N7">
-        <v>94.3348072251292</v>
+        <v>0.207911</v>
       </c>
       <c r="O7">
-        <v>0.3680781998167726</v>
+        <v>0.0001844138843618826</v>
       </c>
       <c r="P7">
-        <v>0.3680781998167726</v>
+        <v>0.0001844379559408913</v>
       </c>
       <c r="Q7">
-        <v>12460.91084212136</v>
+        <v>9.925414947445557</v>
       </c>
       <c r="R7">
-        <v>12460.91084212136</v>
+        <v>89.32873452701</v>
       </c>
       <c r="S7">
-        <v>0.1167915256830087</v>
+        <v>5.24108812261445E-05</v>
       </c>
       <c r="T7">
-        <v>0.1167915256830087</v>
+        <v>5.284731877416951E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>132.092397373363</v>
+        <v>143.2163033333333</v>
       </c>
       <c r="H8">
-        <v>132.092397373363</v>
+        <v>429.64891</v>
       </c>
       <c r="I8">
-        <v>0.3173008500398743</v>
+        <v>0.2842024688515132</v>
       </c>
       <c r="J8">
-        <v>0.3173008500398743</v>
+        <v>0.2865316876050504</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>161.750825565473</v>
+        <v>0.311428</v>
       </c>
       <c r="N8">
-        <v>161.750825565473</v>
+        <v>0.934284</v>
       </c>
       <c r="O8">
-        <v>0.6311239132649276</v>
+        <v>0.000828695651202472</v>
       </c>
       <c r="P8">
-        <v>0.6311239132649276</v>
+        <v>0.000828803821001677</v>
       </c>
       <c r="Q8">
-        <v>21366.05432606399</v>
+        <v>44.60156691449333</v>
       </c>
       <c r="R8">
-        <v>21366.05432606399</v>
+        <v>401.41410223044</v>
       </c>
       <c r="S8">
-        <v>0.2002561541594534</v>
+        <v>0.000235517349998255</v>
       </c>
       <c r="T8">
-        <v>0.2002561541594534</v>
+        <v>0.0002374785575251246</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>132.092397373363</v>
+        <v>143.2163033333333</v>
       </c>
       <c r="H9">
-        <v>132.092397373363</v>
+        <v>429.64891</v>
       </c>
       <c r="I9">
-        <v>0.3173008500398743</v>
+        <v>0.2842024688515132</v>
       </c>
       <c r="J9">
-        <v>0.3173008500398743</v>
+        <v>0.2865316876050504</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.135881998969694</v>
+        <v>168.931335</v>
       </c>
       <c r="N9">
-        <v>0.135881998969694</v>
+        <v>506.794005</v>
       </c>
       <c r="O9">
-        <v>0.0005301881992392126</v>
+        <v>0.4495185489626108</v>
       </c>
       <c r="P9">
-        <v>0.0005301881992392126</v>
+        <v>0.4495772247033483</v>
       </c>
       <c r="Q9">
-        <v>17.94897900379172</v>
+        <v>24193.72131586495</v>
       </c>
       <c r="R9">
-        <v>17.94897900379172</v>
+        <v>217743.4918427846</v>
       </c>
       <c r="S9">
-        <v>0.0001682291662997124</v>
+        <v>0.1277542814097238</v>
       </c>
       <c r="T9">
-        <v>0.0001682291662997124</v>
+        <v>0.1288181209030453</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>80.0814320131703</v>
+        <v>143.2163033333333</v>
       </c>
       <c r="H10">
-        <v>80.0814320131703</v>
+        <v>429.64891</v>
       </c>
       <c r="I10">
-        <v>0.1923646398692235</v>
+        <v>0.2842024688515132</v>
       </c>
       <c r="J10">
-        <v>0.1923646398692235</v>
+        <v>0.2865316876050504</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.06860853772263389</v>
+        <v>206.345828</v>
       </c>
       <c r="N10">
-        <v>0.06860853772263389</v>
+        <v>619.0374839999999</v>
       </c>
       <c r="O10">
-        <v>0.0002676987190607325</v>
+        <v>0.5490768020453307</v>
       </c>
       <c r="P10">
-        <v>0.0002676987190607325</v>
+        <v>0.5491484731435671</v>
       </c>
       <c r="Q10">
-        <v>5.494269949158136</v>
+        <v>29552.08669441583</v>
       </c>
       <c r="R10">
-        <v>5.494269949158136</v>
+        <v>265968.7802497424</v>
       </c>
       <c r="S10">
-        <v>5.149576768557025E-05</v>
+        <v>0.1560489827303766</v>
       </c>
       <c r="T10">
-        <v>5.149576768557025E-05</v>
+        <v>0.157348438755563</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>80.0814320131703</v>
+        <v>143.2163033333333</v>
       </c>
       <c r="H11">
-        <v>80.0814320131703</v>
+        <v>429.64891</v>
       </c>
       <c r="I11">
-        <v>0.1923646398692235</v>
+        <v>0.2842024688515132</v>
       </c>
       <c r="J11">
-        <v>0.1923646398692235</v>
+        <v>0.2865316876050504</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>94.3348072251292</v>
+        <v>0.1471425</v>
       </c>
       <c r="N11">
-        <v>94.3348072251292</v>
+        <v>0.294285</v>
       </c>
       <c r="O11">
-        <v>0.3680781998167726</v>
+        <v>0.0003915394564941487</v>
       </c>
       <c r="P11">
-        <v>0.3680781998167726</v>
+        <v>0.000261060376142028</v>
       </c>
       <c r="Q11">
-        <v>7554.46645127471</v>
+        <v>21.073204913225</v>
       </c>
       <c r="R11">
-        <v>7554.46645127471</v>
+        <v>126.43922947935</v>
       </c>
       <c r="S11">
-        <v>0.07080523035146556</v>
+        <v>0.0001112764801884167</v>
       </c>
       <c r="T11">
-        <v>0.07080523035146556</v>
+        <v>7.480207014278452E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>80.0814320131703</v>
+        <v>85.72041200000001</v>
       </c>
       <c r="H12">
-        <v>80.0814320131703</v>
+        <v>257.161236</v>
       </c>
       <c r="I12">
-        <v>0.1923646398692235</v>
+        <v>0.1701060015818651</v>
       </c>
       <c r="J12">
-        <v>0.1923646398692235</v>
+        <v>0.1715001277151632</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>161.750825565473</v>
+        <v>0.06930366666666667</v>
       </c>
       <c r="N12">
-        <v>161.750825565473</v>
+        <v>0.207911</v>
       </c>
       <c r="O12">
-        <v>0.6311239132649276</v>
+        <v>0.0001844138843618826</v>
       </c>
       <c r="P12">
-        <v>0.6311239132649276</v>
+        <v>0.0001844379559408913</v>
       </c>
       <c r="Q12">
-        <v>12953.2377405956</v>
+        <v>5.940738859777334</v>
       </c>
       <c r="R12">
-        <v>12953.2377405956</v>
+        <v>53.466649737996</v>
       </c>
       <c r="S12">
-        <v>0.1214059242880629</v>
+        <v>3.13699085049803E-05</v>
       </c>
       <c r="T12">
-        <v>0.1214059242880629</v>
+        <v>3.163113299938649E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>80.0814320131703</v>
+        <v>85.72041200000001</v>
       </c>
       <c r="H13">
-        <v>80.0814320131703</v>
+        <v>257.161236</v>
       </c>
       <c r="I13">
-        <v>0.1923646398692235</v>
+        <v>0.1701060015818651</v>
       </c>
       <c r="J13">
-        <v>0.1923646398692235</v>
+        <v>0.1715001277151632</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.135881998969694</v>
+        <v>0.311428</v>
       </c>
       <c r="N13">
-        <v>0.135881998969694</v>
+        <v>0.934284</v>
       </c>
       <c r="O13">
-        <v>0.0005301881992392126</v>
+        <v>0.000828695651202472</v>
       </c>
       <c r="P13">
-        <v>0.0005301881992392126</v>
+        <v>0.000828803821001677</v>
       </c>
       <c r="Q13">
-        <v>10.88162506230523</v>
+        <v>26.695736468336</v>
       </c>
       <c r="R13">
-        <v>10.88162506230523</v>
+        <v>240.261628215024</v>
       </c>
       <c r="S13">
-        <v>0.0001019894620095633</v>
+        <v>0.0001409661037543325</v>
       </c>
       <c r="T13">
-        <v>0.0001019894620095633</v>
+        <v>0.0001421399611526028</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>193.981490831506</v>
+        <v>85.72041200000001</v>
       </c>
       <c r="H14">
-        <v>193.981490831506</v>
+        <v>257.161236</v>
       </c>
       <c r="I14">
-        <v>0.4659654390166353</v>
+        <v>0.1701060015818651</v>
       </c>
       <c r="J14">
-        <v>0.4659654390166353</v>
+        <v>0.1715001277151632</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.06860853772263389</v>
+        <v>168.931335</v>
       </c>
       <c r="N14">
-        <v>0.06860853772263389</v>
+        <v>506.794005</v>
       </c>
       <c r="O14">
-        <v>0.0002676987190607325</v>
+        <v>0.4495185489626108</v>
       </c>
       <c r="P14">
-        <v>0.0002676987190607325</v>
+        <v>0.4495772247033483</v>
       </c>
       <c r="Q14">
-        <v>13.30878643120614</v>
+        <v>14480.86363591002</v>
       </c>
       <c r="R14">
-        <v>13.30878643120614</v>
+        <v>130327.7727231902</v>
       </c>
       <c r="S14">
-        <v>0.0001247383511513251</v>
+        <v>0.07646580300091159</v>
       </c>
       <c r="T14">
-        <v>0.0001247383511513251</v>
+        <v>0.07710255145445283</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>193.981490831506</v>
+        <v>85.72041200000001</v>
       </c>
       <c r="H15">
-        <v>193.981490831506</v>
+        <v>257.161236</v>
       </c>
       <c r="I15">
-        <v>0.4659654390166353</v>
+        <v>0.1701060015818651</v>
       </c>
       <c r="J15">
-        <v>0.4659654390166353</v>
+        <v>0.1715001277151632</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>94.3348072251292</v>
+        <v>206.345828</v>
       </c>
       <c r="N15">
-        <v>94.3348072251292</v>
+        <v>619.0374839999999</v>
       </c>
       <c r="O15">
-        <v>0.3680781998167726</v>
+        <v>0.5490768020453307</v>
       </c>
       <c r="P15">
-        <v>0.3680781998167726</v>
+        <v>0.5491484731435671</v>
       </c>
       <c r="Q15">
-        <v>18299.20654283329</v>
+        <v>17688.04939064114</v>
       </c>
       <c r="R15">
-        <v>18299.20654283329</v>
+        <v>159192.4445157702</v>
       </c>
       <c r="S15">
-        <v>0.1715117199700753</v>
+        <v>0.09340125935728846</v>
       </c>
       <c r="T15">
-        <v>0.1715117199700753</v>
+        <v>0.09417903327870859</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>193.981490831506</v>
+        <v>85.72041200000001</v>
       </c>
       <c r="H16">
-        <v>193.981490831506</v>
+        <v>257.161236</v>
       </c>
       <c r="I16">
-        <v>0.4659654390166353</v>
+        <v>0.1701060015818651</v>
       </c>
       <c r="J16">
-        <v>0.4659654390166353</v>
+        <v>0.1715001277151632</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>161.750825565473</v>
+        <v>0.1471425</v>
       </c>
       <c r="N16">
-        <v>161.750825565473</v>
+        <v>0.294285</v>
       </c>
       <c r="O16">
-        <v>0.6311239132649276</v>
+        <v>0.0003915394564941487</v>
       </c>
       <c r="P16">
-        <v>0.6311239132649276</v>
+        <v>0.000261060376142028</v>
       </c>
       <c r="Q16">
-        <v>31376.66628641733</v>
+        <v>12.61311572271</v>
       </c>
       <c r="R16">
-        <v>31376.66628641733</v>
+        <v>75.67869433626001</v>
       </c>
       <c r="S16">
-        <v>0.2940819313183888</v>
+        <v>6.660321140575626E-05</v>
       </c>
       <c r="T16">
-        <v>0.2940819313183888</v>
+        <v>4.477188784972634E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>193.981490831506</v>
+        <v>258.672133</v>
       </c>
       <c r="H17">
-        <v>193.981490831506</v>
+        <v>776.016399</v>
       </c>
       <c r="I17">
-        <v>0.4659654390166353</v>
+        <v>0.5133162713366615</v>
       </c>
       <c r="J17">
-        <v>0.4659654390166353</v>
+        <v>0.5175232224251752</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.135881998969694</v>
+        <v>0.06930366666666667</v>
       </c>
       <c r="N17">
-        <v>0.135881998969694</v>
+        <v>0.207911</v>
       </c>
       <c r="O17">
-        <v>0.0005301881992392126</v>
+        <v>0.0001844138843618826</v>
       </c>
       <c r="P17">
-        <v>0.0005301881992392126</v>
+        <v>0.0001844379559408913</v>
       </c>
       <c r="Q17">
-        <v>26.3585927373064</v>
+        <v>17.92692728138767</v>
       </c>
       <c r="R17">
-        <v>26.3585927373064</v>
+        <v>161.342345532489</v>
       </c>
       <c r="S17">
-        <v>0.000247049377019939</v>
+        <v>9.466264750335186E-05</v>
       </c>
       <c r="T17">
-        <v>0.000247049377019939</v>
+        <v>9.545092529604255E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.97044844702928</v>
+        <v>258.672133</v>
       </c>
       <c r="H18">
-        <v>8.97044844702928</v>
+        <v>776.016399</v>
       </c>
       <c r="I18">
-        <v>0.02154802981912747</v>
+        <v>0.5133162713366615</v>
       </c>
       <c r="J18">
-        <v>0.02154802981912747</v>
+        <v>0.5175232224251752</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.06860853772263389</v>
+        <v>0.311428</v>
       </c>
       <c r="N18">
-        <v>0.06860853772263389</v>
+        <v>0.934284</v>
       </c>
       <c r="O18">
-        <v>0.0002676987190607325</v>
+        <v>0.000828695651202472</v>
       </c>
       <c r="P18">
-        <v>0.0002676987190607325</v>
+        <v>0.000828803821001677</v>
       </c>
       <c r="Q18">
-        <v>0.6154493506669511</v>
+        <v>80.55774503592399</v>
       </c>
       <c r="R18">
-        <v>0.6154493506669511</v>
+        <v>725.019705323316</v>
       </c>
       <c r="S18">
-        <v>5.768379980862891E-06</v>
+        <v>0.0004253829617481595</v>
       </c>
       <c r="T18">
-        <v>5.768379980862891E-06</v>
+        <v>0.000428925224203086</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.97044844702928</v>
+        <v>258.672133</v>
       </c>
       <c r="H19">
-        <v>8.97044844702928</v>
+        <v>776.016399</v>
       </c>
       <c r="I19">
-        <v>0.02154802981912747</v>
+        <v>0.5133162713366615</v>
       </c>
       <c r="J19">
-        <v>0.02154802981912747</v>
+        <v>0.5175232224251752</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>94.3348072251292</v>
+        <v>168.931335</v>
       </c>
       <c r="N19">
-        <v>94.3348072251292</v>
+        <v>506.794005</v>
       </c>
       <c r="O19">
-        <v>0.3680781998167726</v>
+        <v>0.4495185489626108</v>
       </c>
       <c r="P19">
-        <v>0.3680781998167726</v>
+        <v>0.4495772247033483</v>
       </c>
       <c r="Q19">
-        <v>846.2255249734668</v>
+        <v>43697.82875498755</v>
       </c>
       <c r="R19">
-        <v>846.2255249734668</v>
+        <v>393280.458794888</v>
       </c>
       <c r="S19">
-        <v>0.007931360025422576</v>
+        <v>0.2307451854501539</v>
       </c>
       <c r="T19">
-        <v>0.007931360025422576</v>
+        <v>0.2326666540574439</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.97044844702928</v>
+        <v>258.672133</v>
       </c>
       <c r="H20">
-        <v>8.97044844702928</v>
+        <v>776.016399</v>
       </c>
       <c r="I20">
-        <v>0.02154802981912747</v>
+        <v>0.5133162713366615</v>
       </c>
       <c r="J20">
-        <v>0.02154802981912747</v>
+        <v>0.5175232224251752</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>161.750825565473</v>
+        <v>206.345828</v>
       </c>
       <c r="N20">
-        <v>161.750825565473</v>
+        <v>619.0374839999999</v>
       </c>
       <c r="O20">
-        <v>0.6311239132649276</v>
+        <v>0.5490768020453307</v>
       </c>
       <c r="P20">
-        <v>0.6311239132649276</v>
+        <v>0.5491484731435671</v>
       </c>
       <c r="Q20">
-        <v>1450.977441999501</v>
+        <v>53375.91546441111</v>
       </c>
       <c r="R20">
-        <v>1450.977441999501</v>
+        <v>480383.2391797001</v>
       </c>
       <c r="S20">
-        <v>0.01359947690259708</v>
+        <v>0.2818500567033673</v>
       </c>
       <c r="T20">
-        <v>0.01359947690259708</v>
+        <v>0.2841970874111237</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.97044844702928</v>
+        <v>258.672133</v>
       </c>
       <c r="H21">
-        <v>8.97044844702928</v>
+        <v>776.016399</v>
       </c>
       <c r="I21">
-        <v>0.02154802981912747</v>
+        <v>0.5133162713366615</v>
       </c>
       <c r="J21">
-        <v>0.02154802981912747</v>
+        <v>0.5175232224251752</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.135881998969694</v>
+        <v>0.1471425</v>
       </c>
       <c r="N21">
-        <v>0.135881998969694</v>
+        <v>0.294285</v>
       </c>
       <c r="O21">
-        <v>0.0005301881992392126</v>
+        <v>0.0003915394564941487</v>
       </c>
       <c r="P21">
-        <v>0.0005301881992392126</v>
+        <v>0.000261060376142028</v>
       </c>
       <c r="Q21">
-        <v>1.218922466636926</v>
+        <v>38.0616643299525</v>
       </c>
       <c r="R21">
-        <v>1.218922466636926</v>
+        <v>228.369985979715</v>
       </c>
       <c r="S21">
-        <v>1.142451112695605E-05</v>
+        <v>0.0002009835738887594</v>
       </c>
       <c r="T21">
-        <v>1.142451112695605E-05</v>
+        <v>0.0001351048071085507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>12.2891965</v>
+      </c>
+      <c r="H22">
+        <v>24.578393</v>
+      </c>
+      <c r="I22">
+        <v>0.02438702790262897</v>
+      </c>
+      <c r="J22">
+        <v>0.0163912633338466</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.06930366666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.207911</v>
+      </c>
+      <c r="O22">
+        <v>0.0001844138843618826</v>
+      </c>
+      <c r="P22">
+        <v>0.0001844379559408913</v>
+      </c>
+      <c r="Q22">
+        <v>0.8516863778371666</v>
+      </c>
+      <c r="R22">
+        <v>5.110118267022999</v>
+      </c>
+      <c r="S22">
+        <v>4.497306543565423E-06</v>
+      </c>
+      <c r="T22">
+        <v>3.023171104583545E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>12.2891965</v>
+      </c>
+      <c r="H23">
+        <v>24.578393</v>
+      </c>
+      <c r="I23">
+        <v>0.02438702790262897</v>
+      </c>
+      <c r="J23">
+        <v>0.0163912633338466</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.311428</v>
+      </c>
+      <c r="N23">
+        <v>0.934284</v>
+      </c>
+      <c r="O23">
+        <v>0.000828695651202472</v>
+      </c>
+      <c r="P23">
+        <v>0.000828803821001677</v>
+      </c>
+      <c r="Q23">
+        <v>3.827199887602</v>
+      </c>
+      <c r="R23">
+        <v>22.963199325612</v>
+      </c>
+      <c r="S23">
+        <v>2.020942396866197E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.358514168213675E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>12.2891965</v>
+      </c>
+      <c r="H24">
+        <v>24.578393</v>
+      </c>
+      <c r="I24">
+        <v>0.02438702790262897</v>
+      </c>
+      <c r="J24">
+        <v>0.0163912633338466</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>168.931335</v>
+      </c>
+      <c r="N24">
+        <v>506.794005</v>
+      </c>
+      <c r="O24">
+        <v>0.4495185489626108</v>
+      </c>
+      <c r="P24">
+        <v>0.4495772247033483</v>
+      </c>
+      <c r="Q24">
+        <v>2076.030370822328</v>
+      </c>
+      <c r="R24">
+        <v>12456.18222493397</v>
+      </c>
+      <c r="S24">
+        <v>0.01096242139630048</v>
+      </c>
+      <c r="T24">
+        <v>0.007369138679012504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>12.2891965</v>
+      </c>
+      <c r="H25">
+        <v>24.578393</v>
+      </c>
+      <c r="I25">
+        <v>0.02438702790262897</v>
+      </c>
+      <c r="J25">
+        <v>0.0163912633338466</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>206.345828</v>
+      </c>
+      <c r="N25">
+        <v>619.0374839999999</v>
+      </c>
+      <c r="O25">
+        <v>0.5490768020453307</v>
+      </c>
+      <c r="P25">
+        <v>0.5491484731435671</v>
+      </c>
+      <c r="Q25">
+        <v>2535.824427247202</v>
+      </c>
+      <c r="R25">
+        <v>15214.94656348321</v>
+      </c>
+      <c r="S25">
+        <v>0.01339035129216576</v>
+      </c>
+      <c r="T25">
+        <v>0.009001237232675994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>12.2891965</v>
+      </c>
+      <c r="H26">
+        <v>24.578393</v>
+      </c>
+      <c r="I26">
+        <v>0.02438702790262897</v>
+      </c>
+      <c r="J26">
+        <v>0.0163912633338466</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1471425</v>
+      </c>
+      <c r="N26">
+        <v>0.294285</v>
+      </c>
+      <c r="O26">
+        <v>0.0003915394564941487</v>
+      </c>
+      <c r="P26">
+        <v>0.000261060376142028</v>
+      </c>
+      <c r="Q26">
+        <v>1.80826309600125</v>
+      </c>
+      <c r="R26">
+        <v>7.233052384005</v>
+      </c>
+      <c r="S26">
+        <v>9.548483650502984E-06</v>
+      </c>
+      <c r="T26">
+        <v>4.279109371377025E-06</v>
       </c>
     </row>
   </sheetData>
